--- a/doc/TGTest.xlsx
+++ b/doc/TGTest.xlsx
@@ -676,25 +676,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61888768"/>
-        <c:axId val="97224576"/>
+        <c:axId val="73073024"/>
+        <c:axId val="73074560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61888768"/>
+        <c:axId val="73073024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97224576"/>
+        <c:crossAx val="73074560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97224576"/>
+        <c:axId val="73074560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +702,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61888768"/>
+        <c:crossAx val="73073024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -715,7 +715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1093,25 +1093,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105009152"/>
-        <c:axId val="105011072"/>
+        <c:axId val="73099904"/>
+        <c:axId val="73122176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105009152"/>
+        <c:axId val="73099904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105011072"/>
+        <c:crossAx val="73122176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105011072"/>
+        <c:axId val="73122176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1119,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105009152"/>
+        <c:crossAx val="73099904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,17 +1131,22 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.78999386827110984"/>
-          <c:y val="0.42606884779309928"/>
-          <c:w val="0.21000614592597414"/>
-          <c:h val="0.28386215466097275"/>
+          <c:y val="0.42606884779309934"/>
+          <c:w val="0.21000614592597416"/>
+          <c:h val="0.28386215466097281"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1280,25 +1285,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98917760"/>
-        <c:axId val="98932992"/>
+        <c:axId val="73448832"/>
+        <c:axId val="73487488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98917760"/>
+        <c:axId val="73448832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="h:mm\ AM/PM" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98932992"/>
+        <c:crossAx val="73487488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98932992"/>
+        <c:axId val="73487488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98917760"/>
+        <c:crossAx val="73448832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1317,9 +1322,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2050,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
